--- a/biology/Botanique/Phyllodoce_nipponica/Phyllodoce_nipponica.xlsx
+++ b/biology/Botanique/Phyllodoce_nipponica/Phyllodoce_nipponica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllodoce nipponica est une espèce de plante à fleurs de la famille des Ericaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllodoce nipponica est un arbuste à feuilles vertes en forme d'épines de sapin. Ses fleurs, des clochettes de couleur blanche, s'épanouissent en mai.
 </t>
@@ -542,7 +556,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tsugazakura, au Japon</t>
         </is>
@@ -572,9 +588,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Japon (îles de Honshū et Shikoku) où elle se rencontre communément à l'étage alpin des zones humides de montagne. Elle peuple notamment les pentes du mont mont Nantai dans le parc national de Nikkō[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Japon (îles de Honshū et Shikoku) où elle se rencontre communément à l'étage alpin des zones humides de montagne. Elle peuple notamment les pentes du mont mont Nantai dans le parc national de Nikkō.
 </t>
         </is>
       </c>
@@ -603,15 +621,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Phyllodoce nipponica Makino[3].
-Liste des sous-espèces
-Selon GBIF       (30 août 2021)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Phyllodoce nipponica Makino.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phyllodoce_nipponica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phyllodoce_nipponica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 août 2021) :
 Phyllodoce nipponica subsp. nipponica
-Phyllodoce nipponica subsp. tsugifolia (Nakai) Toyok.
-Synonymes
-Phyllodoce nipponica a pour synonymes[3] :
+Phyllodoce nipponica subsp. tsugifolia (Nakai) Toyok.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Phyllodoce_nipponica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phyllodoce_nipponica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Phyllodoce nipponica a pour synonymes :
 Phyllodoce amabilis Stapf
 Phyllodoce empetriformis var. amabilis (Stapf) Rehder</t>
         </is>
